--- a/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 13,85</t>
+          <t>-22,04; 27,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 18,25</t>
+          <t>-20,62; 17,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 12,04</t>
+          <t>-14,41; 16,72</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 38,22</t>
+          <t>-34,86; 74,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 72,72</t>
+          <t>-26,58; 31,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 35,83</t>
+          <t>-20,92; 31,54</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-3,11</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,36; 13,7</t>
+          <t>-26,25; 36,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 24,66</t>
+          <t>-26,48; 12,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 15,25</t>
+          <t>-21,11; 16,67</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>-16,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>-5,19%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,83; 47,38</t>
+          <t>-37,28; 88,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 98,51</t>
+          <t>-38,78; 25,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 49,68</t>
+          <t>-32,23; 33,4</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>-16,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>-12,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>-13,83</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 21,04</t>
+          <t>-34,99; 0,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 23,5</t>
+          <t>-25,33; 0,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 18,48</t>
+          <t>-24,83; -4,25</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>-23,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>-18,66%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 95,25</t>
+          <t>-44,84; 1,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 140,35</t>
+          <t>-30,98; 0,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 84,78</t>
+          <t>-31,51; -6,25</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>-8,26</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 27,77</t>
+          <t>-21,41; 7,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 13,84</t>
+          <t>-24,16; 3,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 17,46</t>
+          <t>-18,74; 1,77</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>56,58%</t>
+          <t>-9,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>-12,39%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,69; 118,4</t>
+          <t>-31,66; 14,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 47,01</t>
+          <t>-30,67; 6,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,34; 64,22</t>
+          <t>-26,57; 2,68</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16,26</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 9,5</t>
+          <t>-13,43; 22,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 28,27</t>
+          <t>-27,62; 7,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 15,4</t>
+          <t>-13,7; 11,51</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>-12,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>-1,95%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 30,28</t>
+          <t>-19,06; 42,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,14; 174,75</t>
+          <t>-32,46; 10,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 57,58</t>
+          <t>-18,38; 18,96</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>-15,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 21,58</t>
+          <t>-35,58; 8,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 20,32</t>
+          <t>-9,24; 34,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 15,95</t>
+          <t>-16,63; 14,7</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>-1,34%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 62,08</t>
+          <t>-46,42; 14,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 66,42</t>
+          <t>-14,56; 76,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 45,69</t>
+          <t>-23,82; 27,74</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>-5,7</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 10,52</t>
+          <t>-13,84; 5,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,34; 14,13</t>
+          <t>-13,43; -0,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,58</t>
+          <t>-11,8; 0,14</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>-9,75%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>-8,59%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 31,71</t>
+          <t>-20,85; 9,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,34; 51,85</t>
+          <t>-18,72; -0,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,68; 34,04</t>
+          <t>-17,25; 0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.75450693735131</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.245366512901338</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2970488959898931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,04; 27,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,62; 17,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,41; 16,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.07945776316424</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-24.35623499262264</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.08654360254665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,72%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,94%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.39680641538757</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.19730007069521</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.70875820056345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-34,86; 74,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-26,58; 31,78</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,92; 31,54</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.07083011376305526</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.04727054479556582</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.004788073160824851</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3350924589576491</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3178653408440704</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2266248218456007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-26,25; 36,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-26,48; 12,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,11; 16,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.7767425705872812</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.2718811972188894</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3141188714518807</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-16,44%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,19%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.890767205229405</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-11.86047921493073</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.150803738808317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-37,28; 88,21</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-38,78; 25,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-32,23; 33,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-26.85064839945489</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-28.62428957038499</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-22.15906573884327</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-16,84</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-12,09</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-13,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>35.40873176157903</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.29023542012483</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.40000100864511</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-34,99; 0,87</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-25,33; 0,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-24,83; -4,25</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.05047454629120932</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1892779250307556</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.06925900314661897</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-23,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-15,85%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-18,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3781418711989412</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4119536611110298</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.325325216684367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-44,84; 1,47</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-30,98; 0,91</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-31,51; -6,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.8390793704131642</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2083781723639449</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3068106292147065</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,11</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-10,02</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-8,26</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-15.33484089247359</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-11.62789608503479</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-13.04070662165464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-21,41; 7,87</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-24,16; 3,64</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-18,74; 1,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-33.0392649556811</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-25.13860345300285</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-23.7399257738407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-9,7%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-14,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-12,39%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.795841779905853</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.605100920536511</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-3.305843307354366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-31,66; 14,23</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-30,67; 6,17</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-26,57; 2,68</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.2167168834355167</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1524388127035845</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1759701353452103</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,04</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-9,88</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4305458612718581</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3127027667904988</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3019438548352928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-13,43; 22,33</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-27,62; 7,48</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 11,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.03826715441953443</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.01952908369407435</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.04848269984595532</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>8,24%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-12,25%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,95%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.673088834385853</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-9.85255911566253</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-7.9532574032943</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-19,06; 42,98</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-32,46; 10,44</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-18,38; 18,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-21.14441238192169</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-24.22849084901246</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-18.55865708109717</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-15,58</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>11,53</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.51389851675737</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.254870686447565</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.389893821188692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-35,58; 8,7</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 34,13</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 14,7</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.09001381517422603</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1413458016523696</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1193702939913807</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-23,05%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>20,96%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3077975074603531</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.3202067320134087</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2624091273350981</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-46,42; 14,7</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-14,56; 76,57</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-23,82; 27,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1538189797046042</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.05288173968113166</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03603900023640385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-5,7</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>6.136495256964181</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-9.905347235864948</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.7318340231172615</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-13,84; 5,38</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-13,43; -0,12</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 0,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-12.62828082634202</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-27.89649467658833</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-12.74967845452172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-9,75%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-8,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>23.19438290044043</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>7.440172038988478</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>12.44909326208708</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 9,15</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; -0,31</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-17,25; 0,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.1003639934411041</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.1228019169621019</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.01053363151990646</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1762692668961449</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.3207988707119745</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1735169389740531</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.4475073412883473</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1000210665838328</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2003179438000975</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-13.73466224560168</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>8.047652897533464</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-2.271016324916364</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-34.40559922849094</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-12.68316264854815</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-18.87380037287597</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>10.93849830913478</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>29.51343307044102</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>12.90408734367639</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.203203221869924</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.1401578527942002</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.03652329157358288</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.4613967397901384</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.191102365537914</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.27436332293666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.1747779674588061</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.6655361372344816</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.239580388150388</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-3.762585131097762</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-7.647353454876049</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-5.856693993550155</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-12.69561181968326</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-14.44744925688493</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-11.23046782609235</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>6.294443418370921</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-0.03646045701636788</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.1068631698578696</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.06022960137221495</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.1092969419281898</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.08810974138515508</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1902722305791882</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1980918388619524</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1640230340844434</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.1062570180255874</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-0.0009891618408945173</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.001833547773517622</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
